--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.65726433333334</v>
+        <v>6.704275</v>
       </c>
       <c r="H2">
-        <v>100.971793</v>
+        <v>20.112825</v>
       </c>
       <c r="I2">
-        <v>0.8115737688004754</v>
+        <v>0.4617710489234531</v>
       </c>
       <c r="J2">
-        <v>0.8115737688004754</v>
+        <v>0.4617710489234532</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4310330000000001</v>
+        <v>0.1783253333333333</v>
       </c>
       <c r="N2">
-        <v>1.293099</v>
+        <v>0.5349759999999999</v>
       </c>
       <c r="O2">
-        <v>0.08359060417869309</v>
+        <v>0.03636495384128683</v>
       </c>
       <c r="P2">
-        <v>0.08359060417869309</v>
+        <v>0.03636495384128683</v>
       </c>
       <c r="Q2">
-        <v>14.50739161738967</v>
+        <v>1.195542074133333</v>
       </c>
       <c r="R2">
-        <v>130.566524556507</v>
+        <v>10.7598786672</v>
       </c>
       <c r="S2">
-        <v>0.06783994166961071</v>
+        <v>0.01679228287934397</v>
       </c>
       <c r="T2">
-        <v>0.06783994166961071</v>
+        <v>0.01679228287934398</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.65726433333334</v>
+        <v>6.704275</v>
       </c>
       <c r="H3">
-        <v>100.971793</v>
+        <v>20.112825</v>
       </c>
       <c r="I3">
-        <v>0.8115737688004754</v>
+        <v>0.4617710489234531</v>
       </c>
       <c r="J3">
-        <v>0.8115737688004754</v>
+        <v>0.4617710489234532</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>11.203806</v>
       </c>
       <c r="O3">
-        <v>0.7242546105447971</v>
+        <v>0.7615778801978641</v>
       </c>
       <c r="P3">
-        <v>0.7242546105447971</v>
+        <v>0.7615778801978641</v>
       </c>
       <c r="Q3">
-        <v>125.6964866937954</v>
+        <v>25.03779882355</v>
       </c>
       <c r="R3">
-        <v>1131.268380244158</v>
+        <v>225.34018941195</v>
       </c>
       <c r="S3">
-        <v>0.5877860438509616</v>
+        <v>0.3516746165758676</v>
       </c>
       <c r="T3">
-        <v>0.5877860438509616</v>
+        <v>0.3516746165758677</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.65726433333334</v>
+        <v>6.704275</v>
       </c>
       <c r="H4">
-        <v>100.971793</v>
+        <v>20.112825</v>
       </c>
       <c r="I4">
-        <v>0.8115737688004754</v>
+        <v>0.4617710489234531</v>
       </c>
       <c r="J4">
-        <v>0.8115737688004754</v>
+        <v>0.4617710489234532</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>2.972525</v>
       </c>
       <c r="O4">
-        <v>0.1921547852765099</v>
+        <v>0.202057165960849</v>
       </c>
       <c r="P4">
-        <v>0.1921547852765099</v>
+        <v>0.202057165960849</v>
       </c>
       <c r="Q4">
-        <v>33.34901988748056</v>
+        <v>6.642875014791667</v>
       </c>
       <c r="R4">
-        <v>300.1411789873251</v>
+        <v>59.785875133125</v>
       </c>
       <c r="S4">
-        <v>0.1559477832799032</v>
+        <v>0.0933041494682415</v>
       </c>
       <c r="T4">
-        <v>0.1559477832799032</v>
+        <v>0.0933041494682415</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.70865</v>
       </c>
       <c r="I5">
-        <v>0.01373349406661455</v>
+        <v>0.03922895479591048</v>
       </c>
       <c r="J5">
-        <v>0.01373349406661454</v>
+        <v>0.03922895479591048</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4310330000000001</v>
+        <v>0.1783253333333333</v>
       </c>
       <c r="N5">
-        <v>1.293099</v>
+        <v>0.5349759999999999</v>
       </c>
       <c r="O5">
-        <v>0.08359060417869309</v>
+        <v>0.03636495384128683</v>
       </c>
       <c r="P5">
-        <v>0.08359060417869309</v>
+        <v>0.03636495384128683</v>
       </c>
       <c r="Q5">
-        <v>0.24549484515</v>
+        <v>0.1015651936</v>
       </c>
       <c r="R5">
-        <v>2.20945360635</v>
+        <v>0.9140867423999999</v>
       </c>
       <c r="S5">
-        <v>0.001147991066512807</v>
+        <v>0.001426559130395212</v>
       </c>
       <c r="T5">
-        <v>0.001147991066512806</v>
+        <v>0.001426559130395212</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.70865</v>
       </c>
       <c r="I6">
-        <v>0.01373349406661455</v>
+        <v>0.03922895479591048</v>
       </c>
       <c r="J6">
-        <v>0.01373349406661454</v>
+        <v>0.03922895479591048</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>11.203806</v>
       </c>
       <c r="O6">
-        <v>0.7242546105447971</v>
+        <v>0.7615778801978641</v>
       </c>
       <c r="P6">
-        <v>0.7242546105447971</v>
+        <v>0.7615778801978641</v>
       </c>
       <c r="Q6">
         <v>2.1270425691</v>
@@ -818,10 +818,10 @@
         <v>19.1433831219</v>
       </c>
       <c r="S6">
-        <v>0.009946546396635201</v>
+        <v>0.02987590423584734</v>
       </c>
       <c r="T6">
-        <v>0.009946546396635199</v>
+        <v>0.02987590423584734</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.70865</v>
       </c>
       <c r="I7">
-        <v>0.01373349406661455</v>
+        <v>0.03922895479591048</v>
       </c>
       <c r="J7">
-        <v>0.01373349406661454</v>
+        <v>0.03922895479591048</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>2.972525</v>
       </c>
       <c r="O7">
-        <v>0.1921547852765099</v>
+        <v>0.202057165960849</v>
       </c>
       <c r="P7">
-        <v>0.1921547852765099</v>
+        <v>0.202057165960849</v>
       </c>
       <c r="Q7">
         <v>0.56433387125</v>
@@ -880,10 +880,10 @@
         <v>5.07900484125</v>
       </c>
       <c r="S7">
-        <v>0.002638956603466541</v>
+        <v>0.007926491429667929</v>
       </c>
       <c r="T7">
-        <v>0.00263895660346654</v>
+        <v>0.007926491429667929</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>21.734363</v>
       </c>
       <c r="I8">
-        <v>0.1746927371329101</v>
+        <v>0.4989999962806363</v>
       </c>
       <c r="J8">
-        <v>0.17469273713291</v>
+        <v>0.4989999962806364</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4310330000000001</v>
+        <v>0.1783253333333333</v>
       </c>
       <c r="N8">
-        <v>1.293099</v>
+        <v>0.5349759999999999</v>
       </c>
       <c r="O8">
-        <v>0.08359060417869309</v>
+        <v>0.03636495384128683</v>
       </c>
       <c r="P8">
-        <v>0.08359060417869309</v>
+        <v>0.03636495384128683</v>
       </c>
       <c r="Q8">
-        <v>3.122742562326334</v>
+        <v>1.291929175587555</v>
       </c>
       <c r="R8">
-        <v>28.10468306093701</v>
+        <v>11.627362580288</v>
       </c>
       <c r="S8">
-        <v>0.01460267144256957</v>
+        <v>0.01814611183154764</v>
       </c>
       <c r="T8">
-        <v>0.01460267144256956</v>
+        <v>0.01814611183154764</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>21.734363</v>
       </c>
       <c r="I9">
-        <v>0.1746927371329101</v>
+        <v>0.4989999962806363</v>
       </c>
       <c r="J9">
-        <v>0.17469273713291</v>
+        <v>0.4989999962806364</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>11.203806</v>
       </c>
       <c r="O9">
-        <v>0.7242546105447971</v>
+        <v>0.7615778801978641</v>
       </c>
       <c r="P9">
-        <v>0.7242546105447971</v>
+        <v>0.7615778801978641</v>
       </c>
       <c r="Q9">
         <v>27.05639850950867</v>
@@ -1004,10 +1004,10 @@
         <v>243.507586585578</v>
       </c>
       <c r="S9">
-        <v>0.1265220202972004</v>
+        <v>0.3800273593861491</v>
       </c>
       <c r="T9">
-        <v>0.1265220202972004</v>
+        <v>0.3800273593861491</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>21.734363</v>
       </c>
       <c r="I10">
-        <v>0.1746927371329101</v>
+        <v>0.4989999962806363</v>
       </c>
       <c r="J10">
-        <v>0.17469273713291</v>
+        <v>0.4989999962806364</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>2.972525</v>
       </c>
       <c r="O10">
-        <v>0.1921547852765099</v>
+        <v>0.202057165960849</v>
       </c>
       <c r="P10">
-        <v>0.1921547852765099</v>
+        <v>0.202057165960849</v>
       </c>
       <c r="Q10">
         <v>7.178437486286112</v>
@@ -1066,10 +1066,10 @@
         <v>64.60593737657501</v>
       </c>
       <c r="S10">
-        <v>0.03356804539314012</v>
+        <v>0.1008265250629396</v>
       </c>
       <c r="T10">
-        <v>0.03356804539314012</v>
+        <v>0.1008265250629396</v>
       </c>
     </row>
   </sheetData>
